--- a/ky/downloads/data-excel/5.b.1.xlsx
+++ b/ky/downloads/data-excel/5.b.1.xlsx
@@ -440,24 +440,9 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
@@ -477,6 +462,20 @@
     </font>
     <font>
       <i/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -546,10 +545,10 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -616,9 +615,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -628,7 +624,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -643,7 +639,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -661,22 +657,28 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -984,18 +986,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H161"/>
+  <dimension ref="A1:I161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>74</v>
       </c>
@@ -1005,33 +1005,33 @@
       <c r="C1" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+    </row>
+    <row r="2" spans="1:9" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>53</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24"/>
       <c r="B3" s="15"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="25"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="24"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1041,69 +1041,76 @@
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="39">
         <v>2018</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="46">
         <v>2019</v>
       </c>
-      <c r="F4" s="42">
+      <c r="F4" s="40">
         <v>2020</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="40">
         <v>2021</v>
       </c>
-      <c r="H4" s="42">
+      <c r="H4" s="40">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="I4" s="40">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="26" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="17">
         <v>91.8</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="27">
         <v>91.178937872075821</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="41">
         <v>92.6</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G5" s="41">
         <v>92.994602261738635</v>
       </c>
-      <c r="H5" s="43">
+      <c r="H5" s="41">
         <v>92.960099223795225</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="I5" s="41">
+        <v>93.173765489833443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="30" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="31"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="28" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1112,24 +1119,27 @@
       <c r="D7" s="19">
         <v>94.9</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="32">
         <v>95.590033153128772</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="42">
         <v>96</v>
       </c>
-      <c r="G7" s="44">
+      <c r="G7" s="42">
         <v>96.703290161846695</v>
       </c>
-      <c r="H7" s="44">
+      <c r="H7" s="42">
         <v>96.03949422949897</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="42">
+        <v>96.812712627386361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="28" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -1138,40 +1148,44 @@
       <c r="D8" s="19">
         <v>89.9</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="32">
         <v>88.55550636672406</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="42">
         <v>90.5</v>
       </c>
-      <c r="G8" s="44">
+      <c r="G8" s="42">
         <v>90.681478172547202</v>
       </c>
-      <c r="H8" s="44">
+      <c r="H8" s="42">
         <v>91.012153547624152</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="I8" s="42">
+        <v>90.898640492973286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="30" t="s">
         <v>98</v>
       </c>
       <c r="D9" s="19"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E9" s="32"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="28" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -1180,24 +1194,27 @@
       <c r="D10" s="19">
         <v>92.8</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="32">
         <v>92.137464996715806</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="42">
         <v>93.2</v>
       </c>
-      <c r="G10" s="44">
+      <c r="G10" s="42">
         <v>94.137111592107743</v>
       </c>
-      <c r="H10" s="44">
+      <c r="H10" s="42">
         <v>94.391087218067838</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="42">
+        <v>94.496681726238052</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="28" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -1206,384 +1223,426 @@
       <c r="D11" s="21">
         <v>91</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="32">
         <v>90.379166242365969</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="42">
         <v>92</v>
       </c>
-      <c r="G11" s="44">
+      <c r="G11" s="42">
         <v>92.036288528946841</v>
       </c>
-      <c r="H11" s="44">
+      <c r="H11" s="42">
         <v>91.76755842559642</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+      <c r="I11" s="42">
+        <v>92.051111227758497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="31"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="28" t="s">
         <v>59</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="31">
         <v>91.1</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="32">
         <v>92.501775042519242</v>
       </c>
-      <c r="F13" s="44">
+      <c r="F13" s="42">
         <v>93.5</v>
       </c>
-      <c r="G13" s="44">
+      <c r="G13" s="42">
         <v>93.333535676152664</v>
       </c>
-      <c r="H13" s="44">
+      <c r="H13" s="42">
         <v>92.942689638142156</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="42">
+        <v>93.467281976878269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="28" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="31">
         <v>90.6</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="32">
         <v>82.955769777124914</v>
       </c>
-      <c r="F14" s="44">
+      <c r="F14" s="42">
         <v>83.5</v>
       </c>
-      <c r="G14" s="44">
+      <c r="G14" s="42">
         <v>83.868737074772881</v>
       </c>
-      <c r="H14" s="44">
+      <c r="H14" s="42">
         <v>86.897877953385489</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="42">
+        <v>88.48588518782671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="28" t="s">
         <v>61</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="31">
         <v>92.1</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="32">
         <v>93.390894618294169</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="42">
         <v>95.2</v>
       </c>
-      <c r="G15" s="44">
+      <c r="G15" s="42">
         <v>96.414752760301269</v>
       </c>
-      <c r="H15" s="44">
+      <c r="H15" s="42">
         <v>96.500794494289821</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="42">
+        <v>96.547004486826353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="28" t="s">
         <v>62</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="31">
         <v>89.4</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="32">
         <v>89.199874149025149</v>
       </c>
-      <c r="F16" s="44">
+      <c r="F16" s="42">
         <v>92.2</v>
       </c>
-      <c r="G16" s="44">
+      <c r="G16" s="42">
         <v>93.03550750069985</v>
       </c>
-      <c r="H16" s="44">
+      <c r="H16" s="42">
         <v>94.135975315309977</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="42">
+        <v>94.583072668354262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="28" t="s">
         <v>63</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="31">
         <v>87.6</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="32">
         <v>89.256131786243159</v>
       </c>
-      <c r="F17" s="44">
+      <c r="F17" s="42">
         <v>93.2</v>
       </c>
-      <c r="G17" s="44">
+      <c r="G17" s="42">
         <v>92.867770679094491</v>
       </c>
-      <c r="H17" s="44">
+      <c r="H17" s="42">
         <v>89.456106196597958</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="42">
+        <v>86.45869177272472</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="28" t="s">
         <v>64</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="31">
         <v>91.5</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="32">
         <v>90.937705706915267</v>
       </c>
-      <c r="F18" s="44">
+      <c r="F18" s="42">
         <v>92.6</v>
       </c>
-      <c r="G18" s="44">
+      <c r="G18" s="42">
         <v>92.877987892122846</v>
       </c>
-      <c r="H18" s="44">
+      <c r="H18" s="42">
         <v>94.270923428904894</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="42">
+        <v>95.993585670302522</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="28" t="s">
         <v>65</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="31">
         <v>94.6</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="32">
         <v>95.858207536671003</v>
       </c>
-      <c r="F19" s="44">
+      <c r="F19" s="42">
         <v>96</v>
       </c>
-      <c r="G19" s="44">
+      <c r="G19" s="42">
         <v>96.944231580397187</v>
       </c>
-      <c r="H19" s="44">
+      <c r="H19" s="42">
         <v>97.027480110114013</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="42">
+        <v>97.926951512122756</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D20" s="31">
         <v>97</v>
       </c>
-      <c r="E20" s="33">
+      <c r="E20" s="32">
         <v>97.280800369731949</v>
       </c>
-      <c r="F20" s="44">
+      <c r="F20" s="42">
         <v>97.9</v>
       </c>
-      <c r="G20" s="44">
+      <c r="G20" s="42">
         <v>97.652833077455327</v>
       </c>
-      <c r="H20" s="44">
+      <c r="H20" s="42">
         <v>98.077227596867303</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="42">
+        <v>98.078221536867233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="28" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="31">
         <v>88.3</v>
       </c>
-      <c r="E21" s="33">
+      <c r="E21" s="32">
         <v>91.83860551709094</v>
       </c>
-      <c r="F21" s="44">
+      <c r="F21" s="42">
         <v>91.9</v>
       </c>
-      <c r="G21" s="44">
+      <c r="G21" s="42">
         <v>95.839569929950628</v>
       </c>
-      <c r="H21" s="44">
+      <c r="H21" s="42">
         <v>90.983384827072243</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
+      <c r="I21" s="42">
+        <v>95.401412953206219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="29"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="28"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
         <v>43</v>
       </c>
       <c r="B23" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="28" t="s">
         <v>44</v>
       </c>
       <c r="D23" s="19">
         <v>90.9</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E23" s="32">
         <v>89.361138505738495</v>
       </c>
-      <c r="F23" s="44">
+      <c r="F23" s="42">
         <v>90.1</v>
       </c>
-      <c r="G23" s="44">
+      <c r="G23" s="42">
         <v>91.964756617658111</v>
       </c>
-      <c r="H23" s="44">
+      <c r="H23" s="42">
         <v>90.468970496790078</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="24" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
+      <c r="I23" s="42">
+        <v>91.594879782501508</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="A24" s="33" t="s">
         <v>102</v>
       </c>
       <c r="B24" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="28" t="s">
         <v>45</v>
       </c>
       <c r="D24" s="19">
         <v>95.9</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E24" s="32">
         <v>95.334862994458717</v>
       </c>
-      <c r="F24" s="44">
+      <c r="F24" s="42">
         <v>96.1</v>
       </c>
-      <c r="G24" s="44">
+      <c r="G24" s="42">
         <v>95.6254397345499</v>
       </c>
-      <c r="H24" s="44">
+      <c r="H24" s="42">
         <v>95.809965597614095</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
+      <c r="I24" s="42">
+        <v>95.772439637078136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="34" t="s">
         <v>103</v>
       </c>
       <c r="B25" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="28" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="19">
         <v>78.8</v>
       </c>
-      <c r="E25" s="33">
+      <c r="E25" s="32">
         <v>80.59783632156649</v>
       </c>
-      <c r="F25" s="44">
+      <c r="F25" s="42">
         <v>85.6</v>
       </c>
-      <c r="G25" s="44">
+      <c r="G25" s="42">
         <v>86.706526971056761</v>
       </c>
-      <c r="H25" s="44">
+      <c r="H25" s="42">
         <v>88.221110530662017</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+      <c r="I25" s="42">
+        <v>88.002462790348886</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="30" t="s">
         <v>108</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>109</v>
       </c>
       <c r="D26" s="19"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E26" s="32"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="28" t="s">
         <v>75</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -1592,144 +1651,160 @@
       <c r="D27" s="21">
         <v>58.1</v>
       </c>
-      <c r="E27" s="33">
+      <c r="E27" s="32">
         <v>60.727948902567384</v>
       </c>
-      <c r="F27" s="44">
+      <c r="F27" s="42">
         <v>68.7</v>
       </c>
-      <c r="G27" s="44">
+      <c r="G27" s="42">
         <v>68.07602651616979</v>
       </c>
-      <c r="H27" s="44">
+      <c r="H27" s="42">
         <v>69.811292606515579</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="42">
+        <v>71.333678883516242</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="28" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="32">
+      <c r="D28" s="31">
         <v>84</v>
       </c>
-      <c r="E28" s="33">
+      <c r="E28" s="32">
         <v>82.680604000141741</v>
       </c>
-      <c r="F28" s="44">
+      <c r="F28" s="42">
         <v>85.6</v>
       </c>
-      <c r="G28" s="44">
+      <c r="G28" s="42">
         <v>89.482324868373453</v>
       </c>
-      <c r="H28" s="44">
+      <c r="H28" s="42">
         <v>85.757158930558518</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="42">
+        <v>86.907002993165165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="28" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="32">
+      <c r="D29" s="31">
         <v>92.8</v>
       </c>
-      <c r="E29" s="33">
+      <c r="E29" s="32">
         <v>92.037394321351414</v>
       </c>
-      <c r="F29" s="44">
+      <c r="F29" s="42">
         <v>92.9</v>
       </c>
-      <c r="G29" s="44">
+      <c r="G29" s="42">
         <v>92.677683811280133</v>
       </c>
-      <c r="H29" s="44">
+      <c r="H29" s="42">
         <v>93.032103866435918</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="42">
+        <v>92.987655042463771</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="32">
+      <c r="D30" s="31">
         <v>96.4</v>
       </c>
-      <c r="E30" s="33">
+      <c r="E30" s="32">
         <v>96.037142900816562</v>
       </c>
-      <c r="F30" s="44">
+      <c r="F30" s="42">
         <v>96.8</v>
       </c>
-      <c r="G30" s="44">
+      <c r="G30" s="42">
         <v>97.302274668967783</v>
       </c>
-      <c r="H30" s="44">
+      <c r="H30" s="42">
         <v>97.325262246493097</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="42">
+        <v>97.28771382890011</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="35" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="37">
+      <c r="D31" s="36">
         <v>98.1</v>
       </c>
-      <c r="E31" s="33">
+      <c r="E31" s="32">
         <v>97.488857070033887</v>
       </c>
-      <c r="F31" s="44">
+      <c r="F31" s="42">
         <v>98.4</v>
       </c>
-      <c r="G31" s="44">
+      <c r="G31" s="42">
         <v>98.334717525085637</v>
       </c>
-      <c r="H31" s="44">
+      <c r="H31" s="42">
         <v>98.908492141713779</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
+      <c r="I31" s="42">
+        <v>98.722923142249741</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="30" t="s">
         <v>66</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>87</v>
       </c>
       <c r="D32" s="19"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E32" s="32"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="28" t="s">
         <v>67</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -1738,98 +1813,110 @@
       <c r="D33" s="21">
         <v>88.941426622414284</v>
       </c>
-      <c r="E33" s="33">
+      <c r="E33" s="32">
         <v>86.235104323574404</v>
       </c>
-      <c r="F33" s="45">
+      <c r="F33" s="43">
         <v>87.533804299940556</v>
       </c>
-      <c r="G33" s="45">
+      <c r="G33" s="43">
         <v>86.414024436249534</v>
       </c>
-      <c r="H33" s="45">
+      <c r="H33" s="43">
         <v>91.968006037496949</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="43">
+        <v>95.114617666585886</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="28" t="s">
         <v>68</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D34" s="32">
+      <c r="D34" s="31">
         <v>90.23458414066539</v>
       </c>
-      <c r="E34" s="33">
+      <c r="E34" s="32">
         <v>90.933300047499543</v>
       </c>
-      <c r="F34" s="45">
+      <c r="F34" s="43">
         <v>92.176935936134555</v>
       </c>
-      <c r="G34" s="45">
+      <c r="G34" s="43">
         <v>93.331957186877816</v>
       </c>
-      <c r="H34" s="45">
+      <c r="H34" s="43">
         <v>91.809335747904541</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="43">
+        <v>93.151802320339755</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="28" t="s">
         <v>69</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D35" s="32">
+      <c r="D35" s="31">
         <v>91.864445807623227</v>
       </c>
-      <c r="E35" s="33">
+      <c r="E35" s="32">
         <v>90.460036804303684</v>
       </c>
-      <c r="F35" s="45">
+      <c r="F35" s="43">
         <v>95.2234294309131</v>
       </c>
-      <c r="G35" s="45">
+      <c r="G35" s="43">
         <v>94.055975974605076</v>
       </c>
-      <c r="H35" s="45">
+      <c r="H35" s="43">
         <v>91.27524653351901</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="43">
+        <v>89.969910976392214</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="28" t="s">
         <v>70</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="32">
+      <c r="D36" s="31">
         <v>91.919083771526047</v>
       </c>
-      <c r="E36" s="33">
+      <c r="E36" s="32">
         <v>93.289777648920506</v>
       </c>
-      <c r="F36" s="45">
+      <c r="F36" s="43">
         <v>93.748841066994046</v>
       </c>
-      <c r="G36" s="45">
+      <c r="G36" s="43">
         <v>95.4499076460569</v>
       </c>
-      <c r="H36" s="45">
+      <c r="H36" s="43">
         <v>94.397288657466234</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I36" s="43">
+        <v>92.498347032504768</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="20" t="s">
         <v>86</v>
       </c>
@@ -1839,38 +1926,41 @@
       <c r="C37" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="38">
+      <c r="D37" s="37">
         <v>94.603144049655228</v>
       </c>
-      <c r="E37" s="38">
+      <c r="E37" s="37">
         <v>93.356497136948505</v>
       </c>
-      <c r="F37" s="46">
+      <c r="F37" s="44">
         <v>95.771798714978644</v>
       </c>
-      <c r="G37" s="46">
+      <c r="G37" s="44">
         <v>96.978118072483895</v>
       </c>
-      <c r="H37" s="46">
+      <c r="H37" s="44">
         <v>96.740699993405215</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="23" t="s">
+      <c r="I37" s="44">
+        <v>95.135670598922459</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
       <c r="G38" s="13"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1879,7 +1969,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="13"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1888,7 +1978,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="13"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1897,7 +1987,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="14"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1905,7 +1995,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1913,7 +2003,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1921,7 +2011,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1929,7 +2019,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1937,7 +2027,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1945,7 +2035,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -2859,6 +2949,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>